--- a/friday-puzzle/sketchpad/aoc.xlsx
+++ b/friday-puzzle/sketchpad/aoc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Tools\commandbox\SSCCE\friday-puzzle\sketchpad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\Tools\commandbox\SSCCE\friday-puzzle\sketchpad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>U</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,6 +207,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,10 +748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -752,7 +761,181 @@
     <col min="7" max="7" width="6.85546875" style="3"/>
     <col min="8" max="16384" width="6.85546875" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="9:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="2">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="9:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="9:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="9:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="U4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="9:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="9:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="9:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="9:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
+        <v>-2</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="9:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="9:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <v>-4</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="12" spans="9:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3</v>
+      </c>
+      <c r="O12" s="2">
+        <v>4</v>
+      </c>
+      <c r="P12" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>6</v>
+      </c>
+      <c r="R12" s="2">
+        <v>7</v>
+      </c>
+      <c r="S12" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
